--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gnai2-Cav1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gnai2-Cav1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>184.0626906666667</v>
+        <v>63.91118233333333</v>
       </c>
       <c r="H2">
-        <v>552.188072</v>
+        <v>191.733547</v>
       </c>
       <c r="I2">
-        <v>0.6510505751503485</v>
+        <v>0.4067926910433548</v>
       </c>
       <c r="J2">
-        <v>0.6510505751503486</v>
+        <v>0.4067926910433549</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>505.8908573333333</v>
+        <v>568.5612486666666</v>
       </c>
       <c r="N2">
-        <v>1517.672572</v>
+        <v>1705.683746</v>
       </c>
       <c r="O2">
-        <v>0.7018211771568338</v>
+        <v>0.6737621253161296</v>
       </c>
       <c r="P2">
-        <v>0.7018211771568338</v>
+        <v>0.6737621253161296</v>
       </c>
       <c r="Q2">
-        <v>93115.63238444013</v>
+        <v>36337.421631203</v>
       </c>
       <c r="R2">
-        <v>838040.6914599612</v>
+        <v>327036.794680827</v>
       </c>
       <c r="S2">
-        <v>0.4569210810406513</v>
+        <v>0.2740815080804384</v>
       </c>
       <c r="T2">
-        <v>0.4569210810406513</v>
+        <v>0.2740815080804384</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>184.0626906666667</v>
+        <v>63.91118233333333</v>
       </c>
       <c r="H3">
-        <v>552.188072</v>
+        <v>191.733547</v>
       </c>
       <c r="I3">
-        <v>0.6510505751503485</v>
+        <v>0.4067926910433548</v>
       </c>
       <c r="J3">
-        <v>0.6510505751503486</v>
+        <v>0.4067926910433549</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>88.00803399999999</v>
+        <v>88.00803400000001</v>
       </c>
       <c r="N3">
         <v>264.024102</v>
       </c>
       <c r="O3">
-        <v>0.1220933352041997</v>
+        <v>0.1042921587987053</v>
       </c>
       <c r="P3">
-        <v>0.1220933352041997</v>
+        <v>0.1042921587987053</v>
       </c>
       <c r="Q3">
-        <v>16198.99553832348</v>
+        <v>5624.6975077722</v>
       </c>
       <c r="R3">
-        <v>145790.9598449113</v>
+        <v>50622.27756994979</v>
       </c>
       <c r="S3">
-        <v>0.07948893610671853</v>
+        <v>0.04242528793244624</v>
       </c>
       <c r="T3">
-        <v>0.07948893610671855</v>
+        <v>0.04242528793244624</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>184.0626906666667</v>
+        <v>63.91118233333333</v>
       </c>
       <c r="H4">
-        <v>552.188072</v>
+        <v>191.733547</v>
       </c>
       <c r="I4">
-        <v>0.6510505751503485</v>
+        <v>0.4067926910433548</v>
       </c>
       <c r="J4">
-        <v>0.6510505751503486</v>
+        <v>0.4067926910433549</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>126.926974</v>
+        <v>187.2912243333334</v>
       </c>
       <c r="N4">
-        <v>380.780922</v>
+        <v>561.8736730000001</v>
       </c>
       <c r="O4">
-        <v>0.1760854876389666</v>
+        <v>0.2219457158851651</v>
       </c>
       <c r="P4">
-        <v>0.1760854876389665</v>
+        <v>0.2219457158851651</v>
       </c>
       <c r="Q4">
-        <v>23362.52035261804</v>
+        <v>11970.0035878009</v>
       </c>
       <c r="R4">
-        <v>210262.6831735624</v>
+        <v>107730.0322902081</v>
       </c>
       <c r="S4">
-        <v>0.1146405580029788</v>
+        <v>0.09028589503047017</v>
       </c>
       <c r="T4">
-        <v>0.1146405580029788</v>
+        <v>0.09028589503047017</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>172.3302</v>
       </c>
       <c r="I5">
-        <v>0.2031838091312023</v>
+        <v>0.3656254573230189</v>
       </c>
       <c r="J5">
-        <v>0.2031838091312023</v>
+        <v>0.365625457323019</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>505.8908573333333</v>
+        <v>568.5612486666666</v>
       </c>
       <c r="N5">
-        <v>1517.672572</v>
+        <v>1705.683746</v>
       </c>
       <c r="O5">
-        <v>0.7018211771568338</v>
+        <v>0.6737621253161296</v>
       </c>
       <c r="P5">
-        <v>0.7018211771568338</v>
+        <v>0.6737621253161296</v>
       </c>
       <c r="Q5">
-        <v>29060.0908741416</v>
+        <v>32660.0912316588</v>
       </c>
       <c r="R5">
-        <v>261540.8178672744</v>
+        <v>293940.8210849292</v>
       </c>
       <c r="S5">
-        <v>0.1425987001036698</v>
+        <v>0.2463445851956391</v>
       </c>
       <c r="T5">
-        <v>0.1425987001036698</v>
+        <v>0.2463445851956391</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>172.3302</v>
       </c>
       <c r="I6">
-        <v>0.2031838091312023</v>
+        <v>0.3656254573230189</v>
       </c>
       <c r="J6">
-        <v>0.2031838091312023</v>
+        <v>0.365625457323019</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>88.00803399999999</v>
+        <v>88.00803400000001</v>
       </c>
       <c r="N6">
         <v>264.024102</v>
       </c>
       <c r="O6">
-        <v>0.1220933352041997</v>
+        <v>0.1042921587987053</v>
       </c>
       <c r="P6">
-        <v>0.1220933352041997</v>
+        <v>0.1042921587987053</v>
       </c>
       <c r="Q6">
-        <v>5055.4807002756</v>
+        <v>5055.480700275601</v>
       </c>
       <c r="R6">
         <v>45499.3263024804</v>
       </c>
       <c r="S6">
-        <v>0.02480738891632202</v>
+        <v>0.03813186825598155</v>
       </c>
       <c r="T6">
-        <v>0.02480738891632202</v>
+        <v>0.03813186825598156</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>172.3302</v>
       </c>
       <c r="I7">
-        <v>0.2031838091312023</v>
+        <v>0.3656254573230189</v>
       </c>
       <c r="J7">
-        <v>0.2031838091312023</v>
+        <v>0.365625457323019</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>126.926974</v>
+        <v>187.2912243333334</v>
       </c>
       <c r="N7">
-        <v>380.780922</v>
+        <v>561.8736730000001</v>
       </c>
       <c r="O7">
-        <v>0.1760854876389666</v>
+        <v>0.2219457158851651</v>
       </c>
       <c r="P7">
-        <v>0.1760854876389665</v>
+        <v>0.2219457158851651</v>
       </c>
       <c r="Q7">
-        <v>7291.116938271602</v>
+        <v>10758.6447158694</v>
       </c>
       <c r="R7">
-        <v>65620.05244444442</v>
+        <v>96827.8024428246</v>
       </c>
       <c r="S7">
-        <v>0.03577772011121046</v>
+        <v>0.08114900387139831</v>
       </c>
       <c r="T7">
-        <v>0.03577772011121046</v>
+        <v>0.08114900387139831</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>41.21033366666667</v>
+        <v>35.755375</v>
       </c>
       <c r="H8">
-        <v>123.631001</v>
+        <v>107.266125</v>
       </c>
       <c r="I8">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336261</v>
       </c>
       <c r="J8">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336262</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>505.8908573333333</v>
+        <v>568.5612486666666</v>
       </c>
       <c r="N8">
-        <v>1517.672572</v>
+        <v>1705.683746</v>
       </c>
       <c r="O8">
-        <v>0.7018211771568338</v>
+        <v>0.6737621253161296</v>
       </c>
       <c r="P8">
-        <v>0.7018211771568338</v>
+        <v>0.6737621253161296</v>
       </c>
       <c r="Q8">
-        <v>20847.93102962273</v>
+        <v>20329.12065654492</v>
       </c>
       <c r="R8">
-        <v>187631.3792666046</v>
+        <v>182962.0859089042</v>
       </c>
       <c r="S8">
-        <v>0.1023013960125126</v>
+        <v>0.153336032040052</v>
       </c>
       <c r="T8">
-        <v>0.1023013960125127</v>
+        <v>0.153336032040052</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>41.21033366666667</v>
+        <v>35.755375</v>
       </c>
       <c r="H9">
-        <v>123.631001</v>
+        <v>107.266125</v>
       </c>
       <c r="I9">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336261</v>
       </c>
       <c r="J9">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336262</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>88.00803399999999</v>
+        <v>88.00803400000001</v>
       </c>
       <c r="N9">
         <v>264.024102</v>
       </c>
       <c r="O9">
-        <v>0.1220933352041997</v>
+        <v>0.1042921587987053</v>
       </c>
       <c r="P9">
-        <v>0.1220933352041997</v>
+        <v>0.1042921587987053</v>
       </c>
       <c r="Q9">
-        <v>3626.840446487345</v>
+        <v>3146.76025868275</v>
       </c>
       <c r="R9">
-        <v>32641.5640183861</v>
+        <v>28320.84232814475</v>
       </c>
       <c r="S9">
-        <v>0.01779701018115917</v>
+        <v>0.02373500261027753</v>
       </c>
       <c r="T9">
-        <v>0.01779701018115918</v>
+        <v>0.02373500261027754</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>41.21033366666667</v>
+        <v>35.755375</v>
       </c>
       <c r="H10">
-        <v>123.631001</v>
+        <v>107.266125</v>
       </c>
       <c r="I10">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336261</v>
       </c>
       <c r="J10">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336262</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>126.926974</v>
+        <v>187.2912243333334</v>
       </c>
       <c r="N10">
-        <v>380.780922</v>
+        <v>561.8736730000001</v>
       </c>
       <c r="O10">
-        <v>0.1760854876389666</v>
+        <v>0.2219457158851651</v>
       </c>
       <c r="P10">
-        <v>0.1760854876389665</v>
+        <v>0.2219457158851651</v>
       </c>
       <c r="Q10">
-        <v>5230.702949840326</v>
+        <v>6696.66796024746</v>
       </c>
       <c r="R10">
-        <v>47076.32654856293</v>
+        <v>60270.01164222713</v>
       </c>
       <c r="S10">
-        <v>0.02566720952477732</v>
+        <v>0.05051081698329658</v>
       </c>
       <c r="T10">
-        <v>0.02566720952477732</v>
+        <v>0.05051081698329658</v>
       </c>
     </row>
   </sheetData>
